--- a/retailer/data/products.xlsx
+++ b/retailer/data/products.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5092fb7e2292c0/Desktop/retailer/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921EDB96B8E3EDF2C4C48D5B0133C494A8294" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC8AA50-4717-41F4-A85D-B212A91450E7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+  <si>
+    <t>product_id</t>
   </si>
   <si>
     <t>name</t>
@@ -31,17 +37,338 @@
     <t>stock</t>
   </si>
   <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>reorder_level</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>PROD-001</t>
+  </si>
+  <si>
+    <t>PROD-002</t>
+  </si>
+  <si>
+    <t>PROD-003</t>
+  </si>
+  <si>
+    <t>PROD-004</t>
+  </si>
+  <si>
+    <t>PROD-005</t>
+  </si>
+  <si>
+    <t>PROD-006</t>
+  </si>
+  <si>
+    <t>PROD-007</t>
+  </si>
+  <si>
+    <t>PROD-008</t>
+  </si>
+  <si>
+    <t>PROD-009</t>
+  </si>
+  <si>
+    <t>PROD-010</t>
+  </si>
+  <si>
+    <t>PROD-011</t>
+  </si>
+  <si>
+    <t>PROD-012</t>
+  </si>
+  <si>
+    <t>PROD-013</t>
+  </si>
+  <si>
+    <t>PROD-014</t>
+  </si>
+  <si>
+    <t>PROD-015</t>
+  </si>
+  <si>
+    <t>PROD-016</t>
+  </si>
+  <si>
+    <t>PROD-017</t>
+  </si>
+  <si>
+    <t>PROD-018</t>
+  </si>
+  <si>
+    <t>PROD-019</t>
+  </si>
+  <si>
+    <t>PROD-020</t>
+  </si>
+  <si>
+    <t>PROD-021</t>
+  </si>
+  <si>
+    <t>PROD-022</t>
+  </si>
+  <si>
+    <t>PROD-023</t>
+  </si>
+  <si>
+    <t>PROD-024</t>
+  </si>
+  <si>
+    <t>PROD-025</t>
+  </si>
+  <si>
+    <t>PROD-026</t>
+  </si>
+  <si>
+    <t>PROD-027</t>
+  </si>
+  <si>
+    <t>PROD-028</t>
+  </si>
+  <si>
+    <t>PROD-029</t>
+  </si>
+  <si>
+    <t>PROD-030</t>
+  </si>
+  <si>
+    <t>PROD-031</t>
+  </si>
+  <si>
+    <t>PROD-032</t>
+  </si>
+  <si>
+    <t>PROD-033</t>
+  </si>
+  <si>
+    <t>PROD-034</t>
+  </si>
+  <si>
+    <t>PROD-035</t>
+  </si>
+  <si>
+    <t>PROD-036</t>
+  </si>
+  <si>
+    <t>PROD-037</t>
+  </si>
+  <si>
+    <t>PROD-038</t>
+  </si>
+  <si>
+    <t>PROD-039</t>
+  </si>
+  <si>
+    <t>PROD-040</t>
+  </si>
+  <si>
+    <t>PROD-041</t>
+  </si>
+  <si>
+    <t>PROD-042</t>
+  </si>
+  <si>
+    <t>PROD-043</t>
+  </si>
+  <si>
+    <t>PROD-044</t>
+  </si>
+  <si>
+    <t>PROD-045</t>
+  </si>
+  <si>
+    <t>PROD-046</t>
+  </si>
+  <si>
+    <t>PROD-047</t>
+  </si>
+  <si>
+    <t>PROD-048</t>
+  </si>
+  <si>
+    <t>PROD-049</t>
+  </si>
+  <si>
+    <t>PROD-050</t>
+  </si>
+  <si>
+    <t>Product K1</t>
+  </si>
+  <si>
+    <t>Product D2</t>
+  </si>
+  <si>
+    <t>Product R3</t>
+  </si>
+  <si>
+    <t>Product L4</t>
+  </si>
+  <si>
+    <t>Product F5</t>
+  </si>
+  <si>
+    <t>Product V6</t>
+  </si>
+  <si>
+    <t>Product I7</t>
+  </si>
+  <si>
+    <t>Product E8</t>
+  </si>
+  <si>
+    <t>Product L9</t>
+  </si>
+  <si>
+    <t>Product G10</t>
+  </si>
+  <si>
+    <t>Product H11</t>
+  </si>
+  <si>
+    <t>Product K12</t>
+  </si>
+  <si>
+    <t>Product L13</t>
+  </si>
+  <si>
+    <t>Product U14</t>
+  </si>
+  <si>
+    <t>Product C15</t>
+  </si>
+  <si>
+    <t>Product W16</t>
+  </si>
+  <si>
+    <t>Product X17</t>
+  </si>
+  <si>
+    <t>Product G18</t>
+  </si>
+  <si>
+    <t>Product R19</t>
+  </si>
+  <si>
+    <t>Product M20</t>
+  </si>
+  <si>
+    <t>Product T21</t>
+  </si>
+  <si>
+    <t>Product Y22</t>
+  </si>
+  <si>
+    <t>Product C23</t>
+  </si>
+  <si>
+    <t>Product T24</t>
+  </si>
+  <si>
+    <t>Product M25</t>
+  </si>
+  <si>
+    <t>Product N26</t>
+  </si>
+  <si>
+    <t>Product S27</t>
+  </si>
+  <si>
+    <t>Product R28</t>
+  </si>
+  <si>
+    <t>Product V29</t>
+  </si>
+  <si>
+    <t>Product O30</t>
+  </si>
+  <si>
+    <t>Product R31</t>
+  </si>
+  <si>
+    <t>Product P32</t>
+  </si>
+  <si>
+    <t>Product U33</t>
+  </si>
+  <si>
+    <t>Product B34</t>
+  </si>
+  <si>
+    <t>Product P35</t>
+  </si>
+  <si>
+    <t>Product F36</t>
+  </si>
+  <si>
+    <t>Product Z37</t>
+  </si>
+  <si>
+    <t>Product Q38</t>
+  </si>
+  <si>
+    <t>Product G39</t>
+  </si>
+  <si>
+    <t>Product C40</t>
+  </si>
+  <si>
+    <t>Product P41</t>
+  </si>
+  <si>
+    <t>Product B42</t>
+  </si>
+  <si>
+    <t>Product H43</t>
+  </si>
+  <si>
+    <t>Product S44</t>
+  </si>
+  <si>
+    <t>Product S45</t>
+  </si>
+  <si>
+    <t>Product H46</t>
+  </si>
+  <si>
+    <t>Product X47</t>
+  </si>
+  <si>
+    <t>Product B48</t>
+  </si>
+  <si>
+    <t>Product H49</t>
+  </si>
+  <si>
+    <t>Product Q50</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Low Stock</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +431,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +483,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +517,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +552,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +762,1005 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2">
+        <v>557.55999999999995</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>1433.92</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>1709.78</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>185.11</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6">
+        <v>225.67</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>1226.2</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>168.68</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9">
+        <v>1883.45</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>1348.01</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>358.5</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>1354.57</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>1489.45</v>
+      </c>
+      <c r="E13">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>1539.55</v>
+      </c>
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>1262.3900000000001</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>1488.81</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>1145.23</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>961.16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19">
+        <v>299.55</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>1890.96</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21">
+        <v>1241.1199999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>866.14</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23">
+        <v>1270.94</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <v>1430.22</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25">
+        <v>1294.51</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>1595.86</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27">
+        <v>1872.11</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>904.62</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>962.02</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>1945.37</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>1299.1300000000001</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32">
+        <v>636.80999999999995</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33">
+        <v>1093.81</v>
+      </c>
+      <c r="E33">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34">
+        <v>719.67</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>174.18</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36">
+        <v>1715.35</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37">
+        <v>1400.18</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>1470.71</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39">
+        <v>1520.26</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>1072.74</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41">
+        <v>195.27</v>
+      </c>
+      <c r="E41">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42">
+        <v>1640.25</v>
+      </c>
+      <c r="E42">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43">
+        <v>986.26</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44">
+        <v>1291.96</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45">
+        <v>221.15</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46">
+        <v>307.05</v>
+      </c>
+      <c r="E46">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>483.75</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48">
+        <v>1764.45</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49">
+        <v>419.69</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50">
+        <v>1707.42</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>1227.92</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/retailer/data/products.xlsx
+++ b/retailer/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5092fb7e2292c0/Desktop/retailer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921EDB96B8E3EDF2C4C48D5B0133C494A8294" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC8AA50-4717-41F4-A85D-B212A91450E7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_23F921EDB96B8E3EDF2C4C48D5B0133C494A8294" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4952B9-EC01-4DFB-B47A-DAE944604782}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
   <si>
     <t>product_id</t>
   </si>
@@ -362,13 +362,19 @@
   </si>
   <si>
     <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>Global Suppliers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +389,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,11 +438,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,6 +460,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,9 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -741,9 +767,10 @@
     <col min="4" max="4" width="19.265625" customWidth="1"/>
     <col min="5" max="5" width="14.73046875" customWidth="1"/>
     <col min="6" max="6" width="22.73046875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,8 +789,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -782,8 +812,11 @@
       <c r="F2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -802,8 +835,11 @@
       <c r="F3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -822,8 +858,11 @@
       <c r="F4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -842,8 +881,11 @@
       <c r="F5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -862,8 +904,11 @@
       <c r="F6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -882,8 +927,11 @@
       <c r="F7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -902,8 +950,11 @@
       <c r="F8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -922,8 +973,11 @@
       <c r="F9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -942,8 +996,11 @@
       <c r="F10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -962,8 +1019,11 @@
       <c r="F11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -982,8 +1042,11 @@
       <c r="F12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1002,8 +1065,11 @@
       <c r="F13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1022,8 +1088,11 @@
       <c r="F14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1042,8 +1111,11 @@
       <c r="F15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1062,8 +1134,11 @@
       <c r="F16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1082,8 +1157,11 @@
       <c r="F17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1102,8 +1180,11 @@
       <c r="F18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1122,8 +1203,11 @@
       <c r="F19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1142,8 +1226,11 @@
       <c r="F20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1162,8 +1249,11 @@
       <c r="F21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1182,8 +1272,11 @@
       <c r="F22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1202,8 +1295,11 @@
       <c r="F23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1222,8 +1318,11 @@
       <c r="F24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1242,8 +1341,11 @@
       <c r="F25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1262,8 +1364,11 @@
       <c r="F26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1282,8 +1387,11 @@
       <c r="F27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1302,8 +1410,11 @@
       <c r="F28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1322,8 +1433,11 @@
       <c r="F29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1342,8 +1456,11 @@
       <c r="F30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1362,8 +1479,11 @@
       <c r="F31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1382,8 +1502,11 @@
       <c r="F32" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1402,8 +1525,11 @@
       <c r="F33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1422,8 +1548,11 @@
       <c r="F34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1442,8 +1571,11 @@
       <c r="F35" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1462,8 +1594,11 @@
       <c r="F36" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1482,8 +1617,11 @@
       <c r="F37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1502,8 +1640,11 @@
       <c r="F38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1522,8 +1663,11 @@
       <c r="F39" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1542,8 +1686,11 @@
       <c r="F40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1562,8 +1709,11 @@
       <c r="F41" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1582,8 +1732,11 @@
       <c r="F42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1602,8 +1755,11 @@
       <c r="F43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1622,8 +1778,11 @@
       <c r="F44" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1642,8 +1801,11 @@
       <c r="F45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1662,8 +1824,11 @@
       <c r="F46" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1682,8 +1847,11 @@
       <c r="F47" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1702,8 +1870,11 @@
       <c r="F48" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1722,8 +1893,11 @@
       <c r="F49" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G49" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1742,8 +1916,11 @@
       <c r="F50" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G50" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1761,6 +1938,9 @@
       </c>
       <c r="F51" t="s">
         <v>111</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
